--- a/jlptstudy.net/N5/Grammar.xlsx
+++ b/jlptstudy.net/N5/Grammar.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
+    <sheet name="English" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>...+は+Q</t>
   </si>
@@ -49,13 +50,82 @@
   </si>
   <si>
     <t>きのう、ひるごはんは高かったです。</t>
+  </si>
+  <si>
+    <t>what is that. Where is the book?</t>
+  </si>
+  <si>
+    <t>Which one is your shoes? What is in it?</t>
+  </si>
+  <si>
+    <t>This book is expensive.</t>
+  </si>
+  <si>
+    <t>This room is not wide · It is not wide.</t>
+  </si>
+  <si>
+    <t>Yesterday, lunch was expensive.</t>
+  </si>
+  <si>
+    <t>Adj+くなかったです。</t>
+  </si>
+  <si>
+    <t>きのう、ひるごはんは高くなかったです。 きのう、ひるごはんは高くありませんでした。</t>
+  </si>
+  <si>
+    <t>Adj+</t>
+  </si>
+  <si>
+    <t>この本はおもしろい。</t>
+  </si>
+  <si>
+    <t>Adj+くない</t>
+  </si>
+  <si>
+    <t>そのへやは広くない。</t>
+  </si>
+  <si>
+    <t>Adj+かった</t>
+  </si>
+  <si>
+    <t>きのうはあたたかかった。</t>
+  </si>
+  <si>
+    <t>Adj+くなかった</t>
+  </si>
+  <si>
+    <t>きのうはさむくなかった。</t>
+  </si>
+  <si>
+    <t>Adj+くて</t>
+  </si>
+  <si>
+    <t>この本は高くておもしろくないです。</t>
+  </si>
+  <si>
+    <t>Yesterday lunch was not expensive. Yesterday lunch was not expensive.</t>
+  </si>
+  <si>
+    <t>This book is interesting.</t>
+  </si>
+  <si>
+    <t>That room is not wide.</t>
+  </si>
+  <si>
+    <t>Yesterday was warm.</t>
+  </si>
+  <si>
+    <t>It was not cold yesterday.</t>
+  </si>
+  <si>
+    <t>This book is expensive and uninteresting.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,19 +135,36 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +183,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,26 +209,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -145,73 +218,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,54 +539,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="26.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="5">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3" ht="39">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="95.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/N5/Grammar.xlsx
+++ b/jlptstudy.net/N5/Grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>...+は+Q</t>
   </si>
@@ -103,9 +103,6 @@
     <t>この本は高くておもしろくないです。</t>
   </si>
   <si>
-    <t>Yesterday lunch was not expensive. Yesterday lunch was not expensive.</t>
-  </si>
-  <si>
     <t>This book is interesting.</t>
   </si>
   <si>
@@ -119,13 +116,66 @@
   </si>
   <si>
     <t>This book is expensive and uninteresting.</t>
+  </si>
+  <si>
+    <t>きのう、ひるごはんは高くなかったです。
+きのう、ひるごはんは高くありませんでした。</t>
+  </si>
+  <si>
+    <t>Yesterday lunch was not expensive.
+Yesterday lunch was not expensive.</t>
+  </si>
+  <si>
+    <t>Adj+く+V</t>
+  </si>
+  <si>
+    <t>ともだちと　たのしく　あそびます。</t>
+  </si>
+  <si>
+    <t>Adj+N</t>
+  </si>
+  <si>
+    <t>これは　高い本です。</t>
+  </si>
+  <si>
+    <t>Adj+の</t>
+  </si>
+  <si>
+    <t>大きいのは　いくらですか。</t>
+  </si>
+  <si>
+    <t>Adj+N+です</t>
+  </si>
+  <si>
+    <t>このスカートは　きれいです。</t>
+  </si>
+  <si>
+    <t>Adj+N+ではありません</t>
+  </si>
+  <si>
+    <t>このスカートは　きれいではありません。</t>
+  </si>
+  <si>
+    <t>I play friendly with my friends.</t>
+  </si>
+  <si>
+    <t>This is a high book.</t>
+  </si>
+  <si>
+    <t>How much is it big?</t>
+  </si>
+  <si>
+    <t>This skirt is beautiful.</t>
+  </si>
+  <si>
+    <t>This skirt is not beautiful.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +212,13 @@
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -222,16 +279,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -258,6 +309,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25"/>
@@ -554,124 +619,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="5">
+      <c r="A1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37.5">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -682,103 +802,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="95.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="119.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" ht="37.5">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
